--- a/eda/vlsp_chunk/dev/column-2-analyze.xlsx
+++ b/eda/vlsp_chunk/dev/column-2-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>2</t>
   </si>
@@ -31,7 +31,7 @@
     <t>B-AP</t>
   </si>
   <si>
-    <t>lớn, khác, cùng, nhiều, cao, gần, đủ, mới, phải, nhỏ</t>
+    <t>lớn, khác, cùng, nhiều, cao, gần, đủ, mới, nghèo, lì</t>
   </si>
   <si>
     <t>A, T, E, X, V, P, L, N</t>
@@ -43,49 +43,31 @@
     <t>một, những, các, người, mình, khi, chị, Lan, anh, hai</t>
   </si>
   <si>
-    <t>N, M, P, Np, L, Nc, A, Ny, T, B</t>
+    <t>N, M, P, Np, L, Nc, A, Ny, T, FW</t>
   </si>
   <si>
     <t>B-PP</t>
   </si>
   <si>
-    <t>của, trong, với, cho, ở, để, vào, trên, từ, đến</t>
-  </si>
-  <si>
-    <t>E, T, X, P, V, N</t>
-  </si>
-  <si>
-    <t>B-QP</t>
-  </si>
-  <si>
-    <t>một, 10, 22, trên, 3, 2003, 1975, 8, 23, đến</t>
-  </si>
-  <si>
-    <t>M, T, A</t>
-  </si>
-  <si>
-    <t>B-RP</t>
-  </si>
-  <si>
-    <t>Quả_tình, tức_khắc, Đồng_thời</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>của, trong, cho, với, ở, để, vào, trên, từ, đến</t>
+  </si>
+  <si>
+    <t>E, T, P, X, N, Np, V</t>
   </si>
   <si>
     <t>B-VP</t>
   </si>
   <si>
-    <t>có, là, được, phải, đi, nói, bị, làm, cho, đến</t>
-  </si>
-  <si>
-    <t>V, A, T, E, P, X, S, B, M, N</t>
+    <t>có, là, được, phải, đi, nói, làm, bị, cho, đến</t>
+  </si>
+  <si>
+    <t>V, A, T, E, P, X, Z, M, FW, N</t>
   </si>
   <si>
     <t>I-AP</t>
   </si>
   <si>
-    <t>nhất, đòn, hơn, nhau, nhiều, thôi, vì, gì, thiết_tha, thế_giới</t>
+    <t>nhất, đòn, hơn, nhau, nhiều, vì, lớn, gì, mà, cao</t>
   </si>
   <si>
     <t>A, N, T, P, E, V, L, X</t>
@@ -97,34 +79,16 @@
     <t>người, này, năm, đó, ngày, con, ấy, nhà, nào, rừng</t>
   </si>
   <si>
-    <t>N, Np, V, A, P, M, Nc, Nu, Ny, B</t>
-  </si>
-  <si>
-    <t>I-PP</t>
-  </si>
-  <si>
-    <t>đó, cho, đến, tại, đâu, trong, khi, cả, sau, từ</t>
-  </si>
-  <si>
-    <t>E, P, X, N, Np</t>
-  </si>
-  <si>
-    <t>I-QP</t>
-  </si>
-  <si>
-    <t>70, 10.000, hõn, triệu, giảm, 12%</t>
-  </si>
-  <si>
-    <t>M, V, A</t>
+    <t>N, Np, V, A, P, M, Nc, Nu, Ny, FW</t>
   </si>
   <si>
     <t>I-VP</t>
   </si>
   <si>
-    <t>biết, nhau, thêm, là, sống, phải, hết, thấy, tay, nói</t>
-  </si>
-  <si>
-    <t>V, N, A, T, P, E, X, M, Np, Ny</t>
+    <t>biết, nhau, thêm, là, sống, thấy, phải, hết, tay, bộ</t>
+  </si>
+  <si>
+    <t>V, N, A, T, P, E, X, M, Np, I</t>
   </si>
   <si>
     <t>O</t>
@@ -133,7 +97,7 @@
     <t>,, ., ", và, không, đã, :, -, ..., được</t>
   </si>
   <si>
-    <t>CH, R, C, X, T, E, P, V, Nc, N</t>
+    <t>CH, R, C, X, T, E, P, V, N, Nc</t>
   </si>
 </sst>
 </file>
@@ -482,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>6262</v>
+        <v>6291</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -537,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1438</v>
+        <v>1465</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -551,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>3735</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -565,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -579,7 +543,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>3735</v>
+        <v>3822</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -593,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>116</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -607,69 +571,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>3816</v>
+        <v>5848</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="n">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="n">
-        <v>454</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5845</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
